--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="90">
   <si>
     <t>zkratka</t>
   </si>
@@ -28,10 +28,22 @@
     <t>rok</t>
   </si>
   <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>hodinaSkutOd</t>
+  </si>
+  <si>
+    <t>hodinaSkutDo</t>
+  </si>
+  <si>
+    <t>katedra</t>
+  </si>
+  <si>
     <t>nazev</t>
   </si>
   <si>
-    <t>zkratka_right</t>
+    <t>prednasejici</t>
   </si>
   <si>
     <t>prednasejiciUcitIdno</t>
@@ -40,22 +52,238 @@
     <t>jmena</t>
   </si>
   <si>
+    <t>EAPR2</t>
+  </si>
+  <si>
+    <t>EDAV</t>
+  </si>
+  <si>
+    <t>EDMR</t>
+  </si>
+  <si>
+    <t>EDSW</t>
+  </si>
+  <si>
+    <t>EGUI</t>
+  </si>
+  <si>
+    <t>EMLR</t>
+  </si>
+  <si>
+    <t>EPCA</t>
+  </si>
+  <si>
+    <t>EROB</t>
+  </si>
+  <si>
+    <t>ETFI</t>
+  </si>
+  <si>
+    <t>KOTT</t>
+  </si>
+  <si>
+    <t>KSOC</t>
+  </si>
+  <si>
+    <t>OTT</t>
+  </si>
+  <si>
+    <t>PGH</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
     <t>VPOV</t>
   </si>
   <si>
-    <t>KOTT</t>
-  </si>
-  <si>
-    <t>OTT</t>
-  </si>
-  <si>
-    <t>EDSW</t>
-  </si>
-  <si>
-    <t>EAPR2</t>
-  </si>
-  <si>
     <t>Př</t>
+  </si>
+  <si>
+    <t>15.5.2024</t>
+  </si>
+  <si>
+    <t>24.4.2024</t>
+  </si>
+  <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
+    <t>16.5.2024</t>
+  </si>
+  <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>25.4.2024</t>
+  </si>
+  <si>
+    <t>11.4.2024</t>
+  </si>
+  <si>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>14.5.2024</t>
+  </si>
+  <si>
+    <t>16.4.2024</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
+    <t>7.5.2024</t>
+  </si>
+  <si>
+    <t>23.4.2024</t>
+  </si>
+  <si>
+    <t>11.5.2024</t>
+  </si>
+  <si>
+    <t>27.4.2024</t>
+  </si>
+  <si>
+    <t>19.4.2024</t>
+  </si>
+  <si>
+    <t>10.5.2024</t>
+  </si>
+  <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
+  </si>
+  <si>
+    <t>12.4.2024</t>
+  </si>
+  <si>
+    <t>26.4.2024</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>15:50</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>13:50</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>Dependability of Software Systems</t>
+  </si>
+  <si>
+    <t>GUI Programming</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Programování hardwaru</t>
+  </si>
+  <si>
+    <t>Vybrané partie z operačního výzkumu</t>
+  </si>
+  <si>
+    <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Petr Kubera, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'doc. Ing. Mgr. Jiří Barilla, CSc.', 'RNDr. Petr Kubera, Ph.D.'</t>
+  </si>
+  <si>
+    <t>'RNDr. Petr Kubera, Ph.D.', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
+  </si>
+  <si>
+    <t>'Ing. Petr Haberzettl', 'doc. RNDr. Mgr. Viktor Maškov, DrSc.'</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>449, 650</t>
+  </si>
+  <si>
+    <t>650, 2239</t>
+  </si>
+  <si>
+    <t>1780, 2239</t>
+  </si>
+  <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Škvor Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kuba Pavel, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Krejčí Jan, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Barilla Jiří, doc. Ing. Mgr. CSc.</t>
+  </si>
+  <si>
+    <t>Moosaei Hossein, Dr. Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -117,17 +345,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L52" totalsRowShown="0">
+  <autoFilter ref="A1:L52"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="zkratka" dataDxfId="0"/>
     <tableColumn id="2" name="idno" dataDxfId="1"/>
     <tableColumn id="3" name="typAkceZkr" dataDxfId="0"/>
     <tableColumn id="4" name="rok" dataDxfId="1"/>
-    <tableColumn id="5" name="nazev" dataDxfId="0"/>
-    <tableColumn id="6" name="zkratka_right" dataDxfId="0"/>
-    <tableColumn id="7" name="prednasejiciUcitIdno" dataDxfId="1"/>
-    <tableColumn id="8" name="jmena" dataDxfId="0"/>
+    <tableColumn id="5" name="datum" dataDxfId="0"/>
+    <tableColumn id="6" name="hodinaSkutOd" dataDxfId="0"/>
+    <tableColumn id="7" name="hodinaSkutDo" dataDxfId="0"/>
+    <tableColumn id="8" name="katedra" dataDxfId="0"/>
+    <tableColumn id="9" name="nazev" dataDxfId="0"/>
+    <tableColumn id="10" name="prednasejici" dataDxfId="0"/>
+    <tableColumn id="11" name="prednasejiciUcitIdno" dataDxfId="0"/>
+    <tableColumn id="12" name="jmena" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,92 +681,1726 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6259</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6973</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2317</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2776</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>449</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2">
         <v>9114</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2">
         <v>9114</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2">
         <v>9114</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2023</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3416</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2023</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -103,69 +103,69 @@
     <t>15.5.2024</t>
   </si>
   <si>
+    <t>17.4.2024</t>
+  </si>
+  <si>
     <t>24.4.2024</t>
   </si>
   <si>
-    <t>17.4.2024</t>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
   </si>
   <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
-    <t>18.4.2024</t>
+    <t>11.4.2024</t>
   </si>
   <si>
     <t>25.4.2024</t>
   </si>
   <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
     <t>9.5.2024</t>
   </si>
   <si>
+    <t>16.4.2024</t>
+  </si>
+  <si>
     <t>14.5.2024</t>
   </si>
   <si>
-    <t>16.4.2024</t>
-  </si>
-  <si>
     <t>30.4.2024</t>
   </si>
   <si>
+    <t>23.4.2024</t>
+  </si>
+  <si>
     <t>7.5.2024</t>
   </si>
   <si>
-    <t>23.4.2024</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
     <t>27.4.2024</t>
   </si>
   <si>
+    <t>12.4.2024</t>
+  </si>
+  <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
+    <t>10.5.2024</t>
+  </si>
+  <si>
+    <t>26.4.2024</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
+  </si>
+  <si>
     <t>19.4.2024</t>
   </si>
   <si>
-    <t>10.5.2024</t>
-  </si>
-  <si>
-    <t>17.5.2024</t>
-  </si>
-  <si>
-    <t>3.5.2024</t>
-  </si>
-  <si>
-    <t>12.4.2024</t>
-  </si>
-  <si>
-    <t>26.4.2024</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -262,16 +262,16 @@
     <t>1780, 2239</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Babichev Sergii, prof. CSc., DSc.</t>
-  </si>
-  <si>
     <t>Škvor Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Kuba Pavel, Ing. Ph.D.</t>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
@@ -792,7 +792,7 @@
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>51</v>
@@ -805,7 +805,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -822,7 +822,7 @@
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>51</v>
@@ -835,7 +835,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>2220</v>
+        <v>3416</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -865,7 +865,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -873,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -882,7 +882,7 @@
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>51</v>
@@ -903,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>6259</v>
+        <v>3416</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -925,7 +925,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -933,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>6259</v>
+        <v>2220</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -942,7 +942,7 @@
         <v>2023</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>51</v>
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>3416</v>
+        <v>6973</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -972,7 +972,7 @@
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>51</v>
@@ -985,7 +985,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -993,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>2220</v>
+        <v>6259</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1015,7 +1015,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6973</v>
+        <v>2220</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1032,7 +1032,7 @@
         <v>2023</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -1045,7 +1045,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1053,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1062,7 +1062,7 @@
         <v>2023</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>51</v>
@@ -1075,7 +1075,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1105,7 +1105,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1135,7 +1135,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1165,7 +1165,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1235,7 +1235,7 @@
         <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1252,7 +1252,7 @@
         <v>2023</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>53</v>
@@ -1273,7 +1273,7 @@
         <v>78</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1290,7 +1290,7 @@
         <v>2023</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>53</v>
@@ -1311,7 +1311,7 @@
         <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1328,7 +1328,7 @@
         <v>2023</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>53</v>
@@ -1349,7 +1349,7 @@
         <v>78</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1366,7 +1366,7 @@
         <v>2023</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>53</v>
@@ -1387,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1404,7 +1404,7 @@
         <v>2023</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>53</v>
@@ -1425,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1455,7 +1455,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1485,7 +1485,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1515,7 +1515,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1592,7 +1592,7 @@
         <v>2023</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>56</v>
@@ -1622,7 +1622,7 @@
         <v>2023</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>56</v>
@@ -1652,7 +1652,7 @@
         <v>2023</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>56</v>
@@ -1682,7 +1682,7 @@
         <v>2023</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>56</v>
@@ -1712,7 +1712,7 @@
         <v>2023</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>56</v>
@@ -1742,7 +1742,7 @@
         <v>2023</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>54</v>
@@ -1831,7 +1831,7 @@
         <v>80</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1848,7 @@
         <v>2023</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>57</v>
@@ -1886,7 +1886,7 @@
         <v>2023</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>57</v>
@@ -1924,7 +1924,7 @@
         <v>2023</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>57</v>
@@ -1962,7 +1962,7 @@
         <v>2023</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>57</v>
@@ -2000,7 +2000,7 @@
         <v>2023</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>57</v>
@@ -2038,7 +2038,7 @@
         <v>2023</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>57</v>
@@ -2095,7 +2095,7 @@
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2133,7 +2133,7 @@
         <v>80</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2171,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2209,7 +2209,7 @@
         <v>80</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2247,7 +2247,7 @@
         <v>80</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2323,7 +2323,7 @@
         <v>80</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2340,7 +2340,7 @@
         <v>2023</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>51</v>
@@ -2378,7 +2378,7 @@
         <v>2023</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>51</v>

--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -1447,27 +1447,27 @@
     <t>Henych Jiří, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Trahorsch Petr, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Jirsák Jan, doc. RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Škvorová Magda, Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Trahorsch Petr, Mgr. Ph.D.</t>
-  </si>
-  <si>
     <t>Krystyník Pavel, doc. Ing. Ph.D.</t>
   </si>
   <si>
     <t>Matějček Tomáš, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Bláha Jan Daniel, doc. PhDr. RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Vojtíšek Pavel, doc. RNDr. CSc.</t>
   </si>
   <si>
-    <t>Bláha Jan Daniel, doc. PhDr. RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Farský Ivan, RNDr. CSc.</t>
   </si>
   <si>
@@ -1483,12 +1483,12 @@
     <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
   </si>
   <si>
+    <t>Riezner Jiří, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
   </si>
   <si>
-    <t>Riezner Jiří, Mgr. Ph.D.</t>
-  </si>
-  <si>
     <t>Anděl Jiří, doc. RNDr. CSc.</t>
   </si>
   <si>
@@ -1516,12 +1516,12 @@
     <t>Petrusová Zuzana, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
-    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Herma Regina, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1651,12 +1651,12 @@
     <t>Malý Jan, Mgr. Ph.D.</t>
   </si>
   <si>
+    <t>Koutský Jaroslav, doc. RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Lísal Martin, prof. Ing. DSc.</t>
   </si>
   <si>
-    <t>Koutský Jaroslav, doc. RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Pavlík Jaroslav, doc. RNDr. CSc.</t>
   </si>
   <si>
@@ -1669,22 +1669,22 @@
     <t>Bobek Jan, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Raška Pavel, doc. Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Štofik Marcel, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Varady Michal, doc. RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Štofik Marcel, Mgr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Raška Pavel, doc. Mgr. Ph.D.</t>
-  </si>
-  <si>
     <t>Moučka Filip, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Kříženecká Sylvie, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Kuráň Pavel, doc. Dr. Ing.</t>
-  </si>
-  <si>
-    <t>Kříženecká Sylvie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Kopáček Miroslav, Ing. Ph.D.</t>
@@ -2379,7 +2379,9 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>264</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>300</v>
       </c>
@@ -2388,24 +2390,24 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
-        <v>264</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>300</v>
       </c>
@@ -2414,18 +2416,16 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
@@ -2492,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>2855</v>
+        <v>6384</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>300</v>
@@ -2502,10 +2502,10 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2520,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>300</v>
@@ -2548,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>6384</v>
+        <v>2856</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>300</v>
@@ -2558,10 +2558,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2632,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>8421</v>
+        <v>3452</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>300</v>
@@ -2642,10 +2642,10 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2660,7 +2660,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>3452</v>
+        <v>4310</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>300</v>
@@ -2670,17 +2670,17 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2688,7 +2688,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>4310</v>
+        <v>8421</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>300</v>
@@ -2698,17 +2698,17 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2828,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>315</v>
+        <v>1064</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>300</v>
@@ -2838,17 +2838,17 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2856,7 +2856,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>1064</v>
+        <v>315</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>300</v>
@@ -2866,17 +2866,17 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2940,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>4117</v>
+        <v>3164</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>300</v>
@@ -2950,10 +2950,10 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2968,7 +2968,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>3164</v>
+        <v>4117</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>300</v>
@@ -2978,10 +2978,10 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3016,7 +3016,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3024,7 +3024,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>312</v>
+        <v>5431</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>300</v>
@@ -3034,17 +3034,17 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3052,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>5431</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>300</v>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3212,7 +3212,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3246,7 +3246,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>4303</v>
+        <v>3164</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>300</v>
@@ -3266,7 +3266,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>3164</v>
+        <v>4303</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>300</v>
@@ -3294,7 +3294,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3328,7 +3328,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>8419</v>
+        <v>4222</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>300</v>
@@ -3338,17 +3338,17 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3356,7 +3356,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2">
-        <v>4222</v>
+        <v>8419</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>300</v>
@@ -3366,17 +3366,17 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3544,7 +3544,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3552,7 +3552,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2">
-        <v>429</v>
+        <v>1064</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>300</v>
@@ -3572,7 +3572,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3580,7 +3580,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="2">
-        <v>1064</v>
+        <v>429</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>300</v>
@@ -3600,7 +3600,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3762,7 +3762,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3826,7 +3826,7 @@
         <v>432</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3898,7 +3898,7 @@
         <v>432</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3972,7 +3972,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="2">
-        <v>9521</v>
+        <v>3528</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>300</v>
@@ -4008,7 +4008,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="2">
-        <v>3528</v>
+        <v>9521</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>300</v>
@@ -4044,7 +4044,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="2">
-        <v>9521</v>
+        <v>3528</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>300</v>
@@ -4080,7 +4080,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="2">
-        <v>3528</v>
+        <v>9521</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>300</v>
@@ -4116,7 +4116,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="2">
-        <v>2855</v>
+        <v>3164</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>300</v>
@@ -4129,14 +4129,14 @@
         <v>306</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4154,17 +4154,17 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4182,17 +4182,17 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4210,17 +4210,17 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4228,7 +4228,7 @@
         <v>61</v>
       </c>
       <c r="B74" s="2">
-        <v>3164</v>
+        <v>2855</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>300</v>
@@ -4238,17 +4238,17 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4396,7 +4396,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>305</v>
+        <v>1983</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>300</v>
@@ -4406,17 +4406,17 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4424,7 +4424,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="2">
-        <v>1983</v>
+        <v>305</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>300</v>
@@ -4434,17 +4434,17 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4480,7 +4480,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="2">
-        <v>4117</v>
+        <v>5969</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>300</v>
@@ -4493,14 +4493,14 @@
         <v>306</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4508,7 +4508,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="2">
-        <v>5969</v>
+        <v>3661</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>300</v>
@@ -4528,7 +4528,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4536,7 +4536,7 @@
         <v>69</v>
       </c>
       <c r="B85" s="2">
-        <v>3661</v>
+        <v>4117</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>300</v>
@@ -4549,14 +4549,14 @@
         <v>306</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4868,7 +4868,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="2">
-        <v>429</v>
+        <v>1064</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>300</v>
@@ -4888,7 +4888,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4896,7 +4896,7 @@
         <v>78</v>
       </c>
       <c r="B98" s="2">
-        <v>1064</v>
+        <v>429</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>300</v>
@@ -4916,7 +4916,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5480,7 +5480,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5624,7 +5624,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>300</v>
@@ -5644,7 +5644,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5652,7 +5652,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>300</v>
@@ -5672,7 +5672,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5680,7 +5680,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>300</v>
@@ -5700,7 +5700,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6036,7 +6036,7 @@
         <v>110</v>
       </c>
       <c r="B136" s="2">
-        <v>332</v>
+        <v>5431</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>300</v>
@@ -6056,7 +6056,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6064,7 +6064,7 @@
         <v>110</v>
       </c>
       <c r="B137" s="2">
-        <v>5431</v>
+        <v>332</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>300</v>
@@ -6084,7 +6084,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6130,10 +6130,10 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -6158,10 +6158,10 @@
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -6176,7 +6176,7 @@
         <v>113</v>
       </c>
       <c r="B141" s="2">
-        <v>930</v>
+        <v>8512</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>300</v>
@@ -6196,7 +6196,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6204,7 +6204,7 @@
         <v>113</v>
       </c>
       <c r="B142" s="2">
-        <v>8512</v>
+        <v>930</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>300</v>
@@ -6224,7 +6224,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6334,10 +6334,10 @@
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -6362,10 +6362,10 @@
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -6492,7 +6492,7 @@
         <v>121</v>
       </c>
       <c r="B152" s="2">
-        <v>429</v>
+        <v>283</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>300</v>
@@ -6505,14 +6505,14 @@
         <v>306</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6530,10 +6530,10 @@
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -6548,7 +6548,7 @@
         <v>121</v>
       </c>
       <c r="B154" s="2">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>300</v>
@@ -6558,17 +6558,17 @@
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6832,10 +6832,10 @@
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6860,10 +6860,10 @@
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -6944,10 +6944,10 @@
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -6972,10 +6972,10 @@
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -7010,7 +7010,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7098,7 +7098,7 @@
         <v>138</v>
       </c>
       <c r="B174" s="2">
-        <v>4117</v>
+        <v>5471</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>300</v>
@@ -7118,7 +7118,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7126,7 +7126,7 @@
         <v>138</v>
       </c>
       <c r="B175" s="2">
-        <v>5471</v>
+        <v>4117</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>300</v>
@@ -7146,7 +7146,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7208,7 +7208,7 @@
         <v>139</v>
       </c>
       <c r="B178" s="2">
-        <v>5275</v>
+        <v>8024</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>300</v>
@@ -7227,14 +7227,16 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
+      <c r="L178" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B179" s="2">
-        <v>8024</v>
+        <v>5275</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>300</v>
@@ -7253,9 +7255,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
-      <c r="L179" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1" t="s">
@@ -7318,7 +7318,7 @@
         <v>142</v>
       </c>
       <c r="B182" s="2">
-        <v>930</v>
+        <v>2939</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>300</v>
@@ -7338,7 +7338,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7346,7 +7346,7 @@
         <v>142</v>
       </c>
       <c r="B183" s="2">
-        <v>2939</v>
+        <v>930</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>300</v>
@@ -7366,7 +7366,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7606,7 +7606,7 @@
         <v>150</v>
       </c>
       <c r="B192" s="2">
-        <v>1803</v>
+        <v>7723</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>300</v>
@@ -7626,7 +7626,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7634,7 +7634,7 @@
         <v>150</v>
       </c>
       <c r="B193" s="2">
-        <v>7723</v>
+        <v>1803</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>300</v>
@@ -7654,7 +7654,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7829,9 +7829,7 @@
       <c r="A199" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B199" s="2">
-        <v>8438</v>
-      </c>
+      <c r="B199" s="2"/>
       <c r="C199" s="1" t="s">
         <v>300</v>
       </c>
@@ -7840,24 +7838,24 @@
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
-      <c r="L199" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B200" s="2"/>
+      <c r="B200" s="2">
+        <v>8438</v>
+      </c>
       <c r="C200" s="1" t="s">
         <v>300</v>
       </c>
@@ -7866,16 +7864,18 @@
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
+      <c r="L200" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="1" t="s">
@@ -8161,7 +8161,9 @@
       <c r="A210" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B210" s="2"/>
+      <c r="B210" s="2">
+        <v>2939</v>
+      </c>
       <c r="C210" s="1" t="s">
         <v>300</v>
       </c>
@@ -8170,24 +8172,24 @@
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B211" s="2">
-        <v>2939</v>
-      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="1" t="s">
         <v>300</v>
       </c>
@@ -8196,18 +8198,16 @@
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
-      <c r="L211" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="1" t="s">
@@ -8432,10 +8432,10 @@
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -8460,10 +8460,10 @@
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -8524,10 +8524,10 @@
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>333</v>
@@ -8556,10 +8556,10 @@
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>333</v>
@@ -8610,7 +8610,7 @@
         <v>174</v>
       </c>
       <c r="B225" s="2">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>300</v>
@@ -8620,17 +8620,17 @@
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8638,7 +8638,7 @@
         <v>174</v>
       </c>
       <c r="B226" s="2">
-        <v>2855</v>
+        <v>3661</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>300</v>
@@ -8648,17 +8648,17 @@
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8666,7 +8666,7 @@
         <v>174</v>
       </c>
       <c r="B227" s="2">
-        <v>1803</v>
+        <v>2939</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>300</v>
@@ -8676,17 +8676,17 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8694,7 +8694,7 @@
         <v>174</v>
       </c>
       <c r="B228" s="2">
-        <v>7684</v>
+        <v>1803</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>300</v>
@@ -8704,17 +8704,17 @@
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8722,7 +8722,7 @@
         <v>174</v>
       </c>
       <c r="B229" s="2">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>300</v>
@@ -8732,23 +8732,25 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
+      <c r="L229" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B230" s="2">
-        <v>280</v>
+        <v>2855</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>300</v>
@@ -8758,17 +8760,17 @@
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8776,7 +8778,7 @@
         <v>174</v>
       </c>
       <c r="B231" s="2">
-        <v>3661</v>
+        <v>2856</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>300</v>
@@ -8786,17 +8788,17 @@
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8804,7 +8806,7 @@
         <v>174</v>
       </c>
       <c r="B232" s="2">
-        <v>2856</v>
+        <v>7684</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>300</v>
@@ -8824,7 +8826,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -8832,7 +8834,7 @@
         <v>174</v>
       </c>
       <c r="B233" s="2">
-        <v>2939</v>
+        <v>278</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>300</v>
@@ -8851,16 +8853,14 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B234" s="2">
-        <v>609</v>
+        <v>1644</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>300</v>
@@ -8870,10 +8870,10 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -8888,7 +8888,7 @@
         <v>175</v>
       </c>
       <c r="B235" s="2">
-        <v>280</v>
+        <v>609</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>300</v>
@@ -8898,17 +8898,17 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8972,7 +8972,7 @@
         <v>175</v>
       </c>
       <c r="B238" s="2">
-        <v>1644</v>
+        <v>280</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>300</v>
@@ -8982,17 +8982,17 @@
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9056,7 +9056,7 @@
         <v>176</v>
       </c>
       <c r="B241" s="2">
-        <v>8018</v>
+        <v>8198</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>300</v>
@@ -9066,17 +9066,17 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9084,7 +9084,7 @@
         <v>176</v>
       </c>
       <c r="B242" s="2">
-        <v>8198</v>
+        <v>8018</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>300</v>
@@ -9094,17 +9094,17 @@
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9112,7 +9112,7 @@
         <v>177</v>
       </c>
       <c r="B243" s="2">
-        <v>3528</v>
+        <v>5094</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>300</v>
@@ -9122,17 +9122,17 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9160,7 +9160,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9168,7 +9168,7 @@
         <v>177</v>
       </c>
       <c r="B245" s="2">
-        <v>5094</v>
+        <v>3528</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>300</v>
@@ -9178,17 +9178,17 @@
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9196,7 +9196,7 @@
         <v>178</v>
       </c>
       <c r="B246" s="2">
-        <v>1064</v>
+        <v>2856</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>300</v>
@@ -9216,7 +9216,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9224,7 +9224,7 @@
         <v>178</v>
       </c>
       <c r="B247" s="2">
-        <v>4310</v>
+        <v>4117</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>300</v>
@@ -9244,7 +9244,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9252,7 +9252,7 @@
         <v>178</v>
       </c>
       <c r="B248" s="2">
-        <v>4587</v>
+        <v>1434</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>300</v>
@@ -9262,17 +9262,17 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9280,7 +9280,7 @@
         <v>178</v>
       </c>
       <c r="B249" s="2">
-        <v>5431</v>
+        <v>4310</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>300</v>
@@ -9300,7 +9300,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9308,7 +9308,7 @@
         <v>178</v>
       </c>
       <c r="B250" s="2">
-        <v>615</v>
+        <v>5431</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>300</v>
@@ -9318,17 +9318,17 @@
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1" t="s">
-        <v>551</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9336,7 +9336,7 @@
         <v>178</v>
       </c>
       <c r="B251" s="2">
-        <v>4117</v>
+        <v>332</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>300</v>
@@ -9356,7 +9356,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9364,7 +9364,7 @@
         <v>178</v>
       </c>
       <c r="B252" s="2">
-        <v>3528</v>
+        <v>1064</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>300</v>
@@ -9374,17 +9374,17 @@
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9420,7 +9420,7 @@
         <v>178</v>
       </c>
       <c r="B254" s="2">
-        <v>332</v>
+        <v>4587</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>300</v>
@@ -9440,7 +9440,7 @@
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9448,7 +9448,7 @@
         <v>178</v>
       </c>
       <c r="B255" s="2">
-        <v>2856</v>
+        <v>615</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>300</v>
@@ -9458,17 +9458,17 @@
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9476,7 +9476,7 @@
         <v>178</v>
       </c>
       <c r="B256" s="2">
-        <v>1434</v>
+        <v>3528</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>300</v>
@@ -9496,7 +9496,7 @@
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9504,7 +9504,7 @@
         <v>179</v>
       </c>
       <c r="B257" s="2">
-        <v>283</v>
+        <v>6384</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>300</v>
@@ -9514,17 +9514,17 @@
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9532,7 +9532,7 @@
         <v>179</v>
       </c>
       <c r="B258" s="2">
-        <v>3222</v>
+        <v>283</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>300</v>
@@ -9545,14 +9545,14 @@
         <v>313</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -9560,7 +9560,7 @@
         <v>179</v>
       </c>
       <c r="B259" s="2">
-        <v>6384</v>
+        <v>3222</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>300</v>
@@ -9570,17 +9570,17 @@
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -9608,7 +9608,7 @@
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -9616,7 +9616,7 @@
         <v>180</v>
       </c>
       <c r="B261" s="2">
-        <v>7015</v>
+        <v>921</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>300</v>
@@ -9644,7 +9644,7 @@
         <v>180</v>
       </c>
       <c r="B262" s="2">
-        <v>921</v>
+        <v>7015</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>300</v>
@@ -9812,7 +9812,7 @@
         <v>185</v>
       </c>
       <c r="B268" s="2">
-        <v>3661</v>
+        <v>1064</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>300</v>
@@ -9822,17 +9822,17 @@
       </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -9840,7 +9840,7 @@
         <v>185</v>
       </c>
       <c r="B269" s="2">
-        <v>1064</v>
+        <v>3661</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>300</v>
@@ -9850,17 +9850,17 @@
       </c>
       <c r="E269" s="1"/>
       <c r="F269" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -9952,7 +9952,7 @@
         <v>188</v>
       </c>
       <c r="B273" s="2">
-        <v>8740</v>
+        <v>3661</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>300</v>
@@ -9962,17 +9962,17 @@
       </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -9980,7 +9980,7 @@
         <v>188</v>
       </c>
       <c r="B274" s="2">
-        <v>3661</v>
+        <v>8740</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>300</v>
@@ -9990,17 +9990,17 @@
       </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10028,7 +10028,7 @@
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10146,7 +10146,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10174,7 +10174,7 @@
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10230,7 +10230,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10238,7 +10238,7 @@
         <v>194</v>
       </c>
       <c r="B283" s="2">
-        <v>3521</v>
+        <v>3222</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>300</v>
@@ -10258,7 +10258,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10266,7 +10266,7 @@
         <v>194</v>
       </c>
       <c r="B284" s="2">
-        <v>3222</v>
+        <v>3452</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>300</v>
@@ -10276,17 +10276,17 @@
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1" t="s">
-        <v>554</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10294,7 +10294,7 @@
         <v>194</v>
       </c>
       <c r="B285" s="2">
-        <v>3452</v>
+        <v>304</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>300</v>
@@ -10304,17 +10304,17 @@
       </c>
       <c r="E285" s="1"/>
       <c r="F285" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10322,7 +10322,7 @@
         <v>194</v>
       </c>
       <c r="B286" s="2">
-        <v>304</v>
+        <v>3521</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>300</v>
@@ -10342,7 +10342,7 @@
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10406,7 +10406,7 @@
         <v>196</v>
       </c>
       <c r="B289" s="2">
-        <v>2065</v>
+        <v>79</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>300</v>
@@ -10416,17 +10416,17 @@
       </c>
       <c r="E289" s="1"/>
       <c r="F289" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -10434,7 +10434,7 @@
         <v>196</v>
       </c>
       <c r="B290" s="2">
-        <v>79</v>
+        <v>2065</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>300</v>
@@ -10444,17 +10444,17 @@
       </c>
       <c r="E290" s="1"/>
       <c r="F290" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -10486,7 +10486,7 @@
         <v>197</v>
       </c>
       <c r="B292" s="2">
-        <v>2065</v>
+        <v>4273</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>300</v>
@@ -10506,7 +10506,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -10538,7 +10538,7 @@
         <v>197</v>
       </c>
       <c r="B294" s="2">
-        <v>4273</v>
+        <v>2065</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>300</v>
@@ -10558,7 +10558,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -10650,7 +10650,7 @@
         <v>432</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -10686,7 +10686,7 @@
         <v>456</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -10922,7 +10922,7 @@
         <v>209</v>
       </c>
       <c r="B307" s="2">
-        <v>5275</v>
+        <v>9523</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>300</v>
@@ -10941,14 +10941,16 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
+      <c r="L307" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B308" s="2">
-        <v>9523</v>
+        <v>5275</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>300</v>
@@ -10967,16 +10969,14 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
-      <c r="L308" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="L308" s="1"/>
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B309" s="2">
-        <v>2065</v>
+        <v>4472</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>300</v>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>319</v>
@@ -10996,7 +10996,7 @@
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
       <c r="L309" s="1" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11032,7 +11032,7 @@
         <v>210</v>
       </c>
       <c r="B311" s="2">
-        <v>4472</v>
+        <v>2065</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>300</v>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>319</v>
@@ -11052,7 +11052,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11304,7 +11304,7 @@
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
       <c r="L319" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11378,10 +11378,10 @@
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -11406,10 +11406,10 @@
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -11424,7 +11424,7 @@
         <v>220</v>
       </c>
       <c r="B324" s="2">
-        <v>4680</v>
+        <v>264</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>300</v>
@@ -11434,17 +11434,17 @@
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1" t="s">
-        <v>560</v>
+        <v>475</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -11462,10 +11462,10 @@
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -11480,7 +11480,7 @@
         <v>220</v>
       </c>
       <c r="B326" s="2">
-        <v>264</v>
+        <v>4680</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>300</v>
@@ -11490,17 +11490,17 @@
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
       <c r="L326" s="1" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -11792,7 +11792,7 @@
         <v>229</v>
       </c>
       <c r="B337" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>300</v>
@@ -11820,7 +11820,7 @@
         <v>229</v>
       </c>
       <c r="B338" s="2">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>300</v>
@@ -11840,7 +11840,7 @@
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -11904,7 +11904,7 @@
         <v>232</v>
       </c>
       <c r="B341" s="2">
-        <v>2939</v>
+        <v>3164</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>300</v>
@@ -11914,17 +11914,17 @@
       </c>
       <c r="E341" s="1"/>
       <c r="F341" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -11932,7 +11932,7 @@
         <v>232</v>
       </c>
       <c r="B342" s="2">
-        <v>3164</v>
+        <v>2939</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>300</v>
@@ -11942,17 +11942,17 @@
       </c>
       <c r="E342" s="1"/>
       <c r="F342" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12008,7 +12008,7 @@
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12152,7 +12152,7 @@
         <v>237</v>
       </c>
       <c r="B349" s="2">
-        <v>2065</v>
+        <v>8740</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>300</v>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="E349" s="1"/>
       <c r="F349" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12180,7 +12180,7 @@
         <v>237</v>
       </c>
       <c r="B350" s="2">
-        <v>8740</v>
+        <v>2065</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>300</v>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="E350" s="1"/>
       <c r="F350" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12236,7 +12236,7 @@
         <v>239</v>
       </c>
       <c r="B352" s="2">
-        <v>2384</v>
+        <v>332</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>300</v>
@@ -12256,7 +12256,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -12292,7 +12292,7 @@
         <v>239</v>
       </c>
       <c r="B354" s="2">
-        <v>280</v>
+        <v>2384</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>300</v>
@@ -12312,7 +12312,7 @@
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
       <c r="L354" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -12320,7 +12320,7 @@
         <v>239</v>
       </c>
       <c r="B355" s="2">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>300</v>
@@ -12340,7 +12340,7 @@
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
       <c r="L355" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -12348,7 +12348,7 @@
         <v>240</v>
       </c>
       <c r="B356" s="2">
-        <v>1543</v>
+        <v>609</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>300</v>
@@ -12358,17 +12358,17 @@
       </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -12376,7 +12376,7 @@
         <v>240</v>
       </c>
       <c r="B357" s="2">
-        <v>609</v>
+        <v>1543</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>300</v>
@@ -12386,17 +12386,17 @@
       </c>
       <c r="E357" s="1"/>
       <c r="F357" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
       <c r="L357" s="1" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -12456,7 +12456,7 @@
         <v>242</v>
       </c>
       <c r="B360" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>300</v>
@@ -12476,7 +12476,7 @@
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
       <c r="L360" s="1" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -12484,7 +12484,7 @@
         <v>242</v>
       </c>
       <c r="B361" s="2">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>300</v>
@@ -12504,7 +12504,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -12512,7 +12512,7 @@
         <v>242</v>
       </c>
       <c r="B362" s="2">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>300</v>
@@ -12532,7 +12532,7 @@
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
       <c r="L362" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -12716,7 +12716,7 @@
         <v>465</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -12852,7 +12852,7 @@
         <v>253</v>
       </c>
       <c r="B373" s="2">
-        <v>9114</v>
+        <v>650</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>300</v>
@@ -12862,17 +12862,17 @@
       </c>
       <c r="E373" s="1"/>
       <c r="F373" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
       <c r="L373" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -12880,7 +12880,7 @@
         <v>253</v>
       </c>
       <c r="B374" s="2">
-        <v>650</v>
+        <v>9114</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>300</v>
@@ -12890,17 +12890,17 @@
       </c>
       <c r="E374" s="1"/>
       <c r="F374" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
       <c r="L374" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13319,7 +13319,9 @@
       <c r="A389" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B389" s="2"/>
+      <c r="B389" s="2">
+        <v>8987</v>
+      </c>
       <c r="C389" s="1" t="s">
         <v>300</v>
       </c>
@@ -13328,24 +13330,24 @@
       </c>
       <c r="E389" s="1"/>
       <c r="F389" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
+      <c r="L389" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B390" s="2">
-        <v>8987</v>
-      </c>
+      <c r="B390" s="2"/>
       <c r="C390" s="1" t="s">
         <v>300</v>
       </c>
@@ -13354,18 +13356,16 @@
       </c>
       <c r="E390" s="1"/>
       <c r="F390" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="L390" s="1"/>
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="1" t="s">
@@ -13392,7 +13392,7 @@
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
       <c r="L391" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -13466,10 +13466,10 @@
       </c>
       <c r="E394" s="1"/>
       <c r="F394" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
@@ -13494,10 +13494,10 @@
       </c>
       <c r="E395" s="1"/>
       <c r="F395" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
@@ -13540,7 +13540,7 @@
         <v>272</v>
       </c>
       <c r="B397" s="2">
-        <v>1543</v>
+        <v>5275</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>300</v>
@@ -13550,25 +13550,23 @@
       </c>
       <c r="E397" s="1"/>
       <c r="F397" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
-      <c r="L397" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="L397" s="1"/>
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B398" s="2">
-        <v>8024</v>
+        <v>1543</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>300</v>
@@ -13578,17 +13576,17 @@
       </c>
       <c r="E398" s="1"/>
       <c r="F398" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1" t="s">
-        <v>535</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -13596,7 +13594,7 @@
         <v>272</v>
       </c>
       <c r="B399" s="2">
-        <v>5275</v>
+        <v>8024</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>300</v>
@@ -13615,7 +13613,9 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
+      <c r="L399" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="1" t="s">
@@ -13688,10 +13688,10 @@
       </c>
       <c r="E402" s="1"/>
       <c r="F402" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
@@ -13716,10 +13716,10 @@
       </c>
       <c r="E403" s="1"/>
       <c r="F403" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
@@ -13790,7 +13790,7 @@
         <v>276</v>
       </c>
       <c r="B406" s="2">
-        <v>5471</v>
+        <v>3188</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>300</v>
@@ -13800,17 +13800,17 @@
       </c>
       <c r="E406" s="1"/>
       <c r="F406" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -13818,7 +13818,7 @@
         <v>276</v>
       </c>
       <c r="B407" s="2">
-        <v>3188</v>
+        <v>5471</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>300</v>
@@ -13828,17 +13828,17 @@
       </c>
       <c r="E407" s="1"/>
       <c r="F407" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
       <c r="L407" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -13846,7 +13846,7 @@
         <v>277</v>
       </c>
       <c r="B408" s="2">
-        <v>5275</v>
+        <v>8024</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>300</v>
@@ -13865,14 +13865,16 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
+      <c r="L408" s="1" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B409" s="2">
-        <v>8024</v>
+        <v>5275</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>300</v>
@@ -13891,9 +13893,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
-      <c r="L409" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="L409" s="1"/>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="1" t="s">
@@ -13927,7 +13927,9 @@
       <c r="A411" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B411" s="2"/>
+      <c r="B411" s="2">
+        <v>8419</v>
+      </c>
       <c r="C411" s="1" t="s">
         <v>300</v>
       </c>
@@ -13936,24 +13938,24 @@
       </c>
       <c r="E411" s="1"/>
       <c r="F411" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
+      <c r="L411" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B412" s="2">
-        <v>8419</v>
-      </c>
+      <c r="B412" s="2"/>
       <c r="C412" s="1" t="s">
         <v>300</v>
       </c>
@@ -13962,25 +13964,23 @@
       </c>
       <c r="E412" s="1"/>
       <c r="F412" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
-      <c r="L412" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="L412" s="1"/>
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B413" s="2">
-        <v>930</v>
+        <v>4472</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>300</v>
@@ -14004,7 +14004,7 @@
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
       <c r="L413" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14012,7 +14012,7 @@
         <v>280</v>
       </c>
       <c r="B414" s="2">
-        <v>4472</v>
+        <v>930</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>300</v>
@@ -14036,7 +14036,7 @@
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
       <c r="L414" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -14242,7 +14242,7 @@
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
       <c r="L421" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -14462,7 +14462,7 @@
         <v>469</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -14598,7 +14598,7 @@
         <v>469</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="433" spans="1:12">

--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -379,28 +379,28 @@
     <t>19.2.2024</t>
   </si>
   <si>
+    <t>5.1.2024</t>
+  </si>
+  <si>
     <t>10.12.2023</t>
   </si>
   <si>
-    <t>5.1.2024</t>
+    <t>2.12.2023</t>
   </si>
   <si>
     <t>21.10.2023</t>
   </si>
   <si>
-    <t>2.12.2023</t>
-  </si>
-  <si>
     <t>9.3.2024</t>
   </si>
   <si>
     <t>16.12.2023</t>
   </si>
   <si>
+    <t>6.4.2024</t>
+  </si>
+  <si>
     <t>16.3.2024</t>
-  </si>
-  <si>
-    <t>6.4.2024</t>
   </si>
   <si>
     <t>2.3.2024</t>
@@ -1052,12 +1052,12 @@
     <t>Hruška Vladan, Mgr. Ph.D.</t>
   </si>
   <si>
+    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
-    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Benada Oldřich, RNDr. CSc.</t>
   </si>
   <si>
@@ -1073,15 +1073,15 @@
     <t>Krejčí Jan, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Babichev Sergii, prof. CSc., DSc.</t>
-  </si>
-  <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Zukerstein Jaroslav, PhDr. Ph.D.</t>
   </si>
   <si>
@@ -1109,24 +1109,24 @@
     <t>Al Souki Karim, Ph.D.</t>
   </si>
   <si>
+    <t>Kolská Zdeňka, prof. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Šícha Václav, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Henych Jiří, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
+    <t>Štofik Marcel, Mgr. Ph.D.</t>
+  </si>
+  <si>
     <t>Čermák Jan, doc. Ing. CSc.</t>
   </si>
   <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Kolská Zdeňka, prof. Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Štofik Marcel, Mgr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Šícha Václav, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Henych Jiří, Ing. Ph.D.</t>
-  </si>
-  <si>
     <t>Dolejš Martin, Mgr. Ph.D.</t>
   </si>
   <si>
@@ -1172,10 +1172,10 @@
     <t>Pitrová Veronika, RNDr. PhD., Ph.D.</t>
   </si>
   <si>
+    <t>Dočkal Jan, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Lísal Martin, prof. Ing. DSc.</t>
-  </si>
-  <si>
-    <t>Dočkal Jan, RNDr. Ph.D.</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1828,7 @@
         <v>119</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>165</v>
@@ -2072,7 +2072,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>9521</v>
+        <v>3528</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>114</v>
@@ -2116,7 +2116,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2">
-        <v>3528</v>
+        <v>9521</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>114</v>
@@ -2193,7 +2193,7 @@
         <v>301</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2237,7 +2237,7 @@
         <v>301</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2263,10 +2263,10 @@
         <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -2307,10 +2307,10 @@
         <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -2519,10 +2519,10 @@
         <v>127</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>17</v>
@@ -2563,10 +2563,10 @@
         <v>128</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>17</v>
@@ -2892,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>114</v>
@@ -2936,7 +2936,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>114</v>
@@ -2980,7 +2980,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>114</v>
@@ -3057,7 +3057,7 @@
         <v>307</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3101,7 +3101,7 @@
         <v>308</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3189,7 +3189,7 @@
         <v>307</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3341,16 +3341,16 @@
         <v>2023</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>17</v>
@@ -3381,16 +3381,16 @@
         <v>2023</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>17</v>
@@ -3785,7 +3785,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3873,7 +3873,7 @@
         <v>318</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3893,10 +3893,10 @@
         <v>2023</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>168</v>
@@ -3933,10 +3933,10 @@
         <v>2023</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>165</v>
@@ -3964,7 +3964,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="2">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -3997,7 +3997,7 @@
         <v>319</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4008,7 +4008,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>114</v>
@@ -4041,7 +4041,7 @@
         <v>319</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4096,7 +4096,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="2">
-        <v>1064</v>
+        <v>332</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>114</v>
@@ -4136,7 +4136,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>114</v>
@@ -4176,7 +4176,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="2">
-        <v>332</v>
+        <v>5431</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>114</v>
@@ -4216,7 +4216,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="2">
-        <v>1503</v>
+        <v>4117</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>114</v>
@@ -4256,7 +4256,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="2">
-        <v>2856</v>
+        <v>1503</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>114</v>
@@ -4285,7 +4285,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4296,7 +4296,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="2">
-        <v>4310</v>
+        <v>2856</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>114</v>
@@ -4325,7 +4325,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4376,7 +4376,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="2">
-        <v>5431</v>
+        <v>1064</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>114</v>
@@ -4537,7 +4537,7 @@
         <v>322</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4560,7 +4560,7 @@
         <v>119</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>170</v>
@@ -4713,7 +4713,7 @@
         <v>298</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4757,7 +4757,7 @@
         <v>324</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4925,7 +4925,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5033,10 +5033,10 @@
         <v>2023</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>169</v>
@@ -5077,10 +5077,10 @@
         <v>2023</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>169</v>
@@ -5121,10 +5121,10 @@
         <v>2023</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>167</v>
@@ -5165,10 +5165,10 @@
         <v>2023</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>167</v>
@@ -5277,7 +5277,7 @@
         <v>331</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5577,7 +5577,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5621,7 +5621,7 @@
         <v>308</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6016,7 +6016,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>4472</v>
+        <v>930</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>114</v>
@@ -6045,7 +6045,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6056,7 +6056,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="2">
-        <v>930</v>
+        <v>4472</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>114</v>
@@ -6085,7 +6085,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6236,7 +6236,7 @@
         <v>119</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>162</v>
@@ -6257,7 +6257,7 @@
         <v>336</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6268,7 +6268,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="2">
-        <v>609</v>
+        <v>7640</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>114</v>
@@ -6312,7 +6312,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="2">
-        <v>7640</v>
+        <v>609</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>114</v>
@@ -6389,7 +6389,7 @@
         <v>318</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6400,7 +6400,7 @@
         <v>112</v>
       </c>
       <c r="C114" s="2">
-        <v>7640</v>
+        <v>609</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>114</v>
@@ -6444,7 +6444,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="2">
-        <v>609</v>
+        <v>7640</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>114</v>

--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -100,42 +100,42 @@
     <t>Př</t>
   </si>
   <si>
+    <t>24.4.2024</t>
+  </si>
+  <si>
     <t>15.5.2024</t>
   </si>
   <si>
-    <t>24.4.2024</t>
-  </si>
-  <si>
     <t>17.4.2024</t>
   </si>
   <si>
+    <t>2.5.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
     <t>16.5.2024</t>
   </si>
   <si>
-    <t>2.5.2024</t>
-  </si>
-  <si>
-    <t>18.4.2024</t>
+    <t>11.4.2024</t>
   </si>
   <si>
     <t>25.4.2024</t>
   </si>
   <si>
-    <t>11.4.2024</t>
-  </si>
-  <si>
     <t>9.5.2024</t>
   </si>
   <si>
+    <t>16.4.2024</t>
+  </si>
+  <si>
+    <t>30.4.2024</t>
+  </si>
+  <si>
     <t>14.5.2024</t>
   </si>
   <si>
-    <t>16.4.2024</t>
-  </si>
-  <si>
-    <t>30.4.2024</t>
-  </si>
-  <si>
     <t>7.5.2024</t>
   </si>
   <si>
@@ -148,24 +148,24 @@
     <t>27.4.2024</t>
   </si>
   <si>
+    <t>10.5.2024</t>
+  </si>
+  <si>
+    <t>17.5.2024</t>
+  </si>
+  <si>
+    <t>3.5.2024</t>
+  </si>
+  <si>
+    <t>26.4.2024</t>
+  </si>
+  <si>
+    <t>12.4.2024</t>
+  </si>
+  <si>
     <t>19.4.2024</t>
   </si>
   <si>
-    <t>10.5.2024</t>
-  </si>
-  <si>
-    <t>17.5.2024</t>
-  </si>
-  <si>
-    <t>3.5.2024</t>
-  </si>
-  <si>
-    <t>12.4.2024</t>
-  </si>
-  <si>
-    <t>26.4.2024</t>
-  </si>
-  <si>
     <t>00:00</t>
   </si>
   <si>
@@ -262,16 +262,16 @@
     <t>1780, 2239</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Babichev Sergii, prof. CSc., DSc.</t>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Škvor Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Kuba Pavel, Ing. Ph.D.</t>
@@ -723,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -753,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>3416</v>
+        <v>6973</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>51</v>
@@ -783,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -792,7 +792,7 @@
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>51</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>2220</v>
+        <v>6259</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -822,7 +822,7 @@
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>51</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>2220</v>
+        <v>6973</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -852,7 +852,7 @@
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>51</v>
@@ -865,7 +865,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -873,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>3416</v>
+        <v>2220</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -882,7 +882,7 @@
         <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>51</v>
@@ -895,7 +895,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -912,7 +912,7 @@
         <v>2023</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>51</v>
@@ -925,7 +925,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -955,7 +955,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>3416</v>
+        <v>2220</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -972,7 +972,7 @@
         <v>2023</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>51</v>
@@ -985,7 +985,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1015,7 +1015,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1032,7 +1032,7 @@
         <v>2023</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -1053,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1062,7 +1062,7 @@
         <v>2023</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>51</v>
@@ -1075,7 +1075,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1105,7 +1105,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1135,7 +1135,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1165,7 +1165,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1235,7 +1235,7 @@
         <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1252,7 +1252,7 @@
         <v>2023</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>53</v>
@@ -1273,7 +1273,7 @@
         <v>78</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1290,7 +1290,7 @@
         <v>2023</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>53</v>
@@ -1311,7 +1311,7 @@
         <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1349,7 +1349,7 @@
         <v>78</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1387,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1425,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1455,7 +1455,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1485,7 +1485,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1515,7 +1515,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1592,7 +1592,7 @@
         <v>2023</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>56</v>
@@ -1622,7 +1622,7 @@
         <v>2023</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>56</v>
@@ -1652,7 +1652,7 @@
         <v>2023</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>56</v>
@@ -1682,7 +1682,7 @@
         <v>2023</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>56</v>
@@ -1742,7 +1742,7 @@
         <v>2023</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>54</v>
@@ -1831,7 +1831,7 @@
         <v>80</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1848,7 @@
         <v>2023</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>57</v>
@@ -1886,7 +1886,7 @@
         <v>2023</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>57</v>
@@ -1962,7 +1962,7 @@
         <v>2023</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>57</v>
@@ -2000,7 +2000,7 @@
         <v>2023</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>57</v>
@@ -2038,7 +2038,7 @@
         <v>2023</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>57</v>
@@ -2095,7 +2095,7 @@
         <v>81</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2133,7 +2133,7 @@
         <v>80</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2171,7 +2171,7 @@
         <v>80</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2209,7 +2209,7 @@
         <v>80</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2247,7 +2247,7 @@
         <v>80</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2285,7 +2285,7 @@
         <v>80</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2323,7 +2323,7 @@
         <v>80</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2340,7 +2340,7 @@
         <v>2023</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>51</v>
@@ -2378,7 +2378,7 @@
         <v>2023</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>51</v>

--- a/results/prednasky_bez_prednasejicich.xlsx
+++ b/results/prednasky_bez_prednasejicich.xlsx
@@ -379,12 +379,12 @@
     <t>19.2.2024</t>
   </si>
   <si>
+    <t>10.12.2023</t>
+  </si>
+  <si>
     <t>5.1.2024</t>
   </si>
   <si>
-    <t>10.12.2023</t>
-  </si>
-  <si>
     <t>2.12.2023</t>
   </si>
   <si>
@@ -457,10 +457,10 @@
     <t>26.2.2024</t>
   </si>
   <si>
+    <t>7.10.2023</t>
+  </si>
+  <si>
     <t>9.12.2023</t>
-  </si>
-  <si>
-    <t>7.10.2023</t>
   </si>
   <si>
     <t>11.11.2023</t>
@@ -1112,21 +1112,21 @@
     <t>Kolská Zdeňka, prof. Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Čermák Jan, doc. Ing. CSc.</t>
+  </si>
+  <si>
+    <t>Štofik Marcel, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
     <t>Šícha Václav, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Henych Jiří, Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Štofik Marcel, Mgr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Čermák Jan, doc. Ing. CSc.</t>
-  </si>
-  <si>
     <t>Dolejš Martin, Mgr. Ph.D.</t>
   </si>
   <si>
@@ -1172,10 +1172,10 @@
     <t>Pitrová Veronika, RNDr. PhD., Ph.D.</t>
   </si>
   <si>
+    <t>Lísal Martin, prof. Ing. DSc.</t>
+  </si>
+  <si>
     <t>Dočkal Jan, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Lísal Martin, prof. Ing. DSc.</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1828,7 @@
         <v>119</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>165</v>
@@ -2160,7 +2160,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="2">
-        <v>3528</v>
+        <v>9521</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>114</v>
@@ -2193,7 +2193,7 @@
         <v>301</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="2">
-        <v>9521</v>
+        <v>3528</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>114</v>
@@ -2237,7 +2237,7 @@
         <v>301</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2263,10 +2263,10 @@
         <v>121</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -2307,10 +2307,10 @@
         <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -3964,7 +3964,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="2">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -3997,7 +3997,7 @@
         <v>319</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4008,7 +4008,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="2">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>114</v>
@@ -4041,7 +4041,7 @@
         <v>319</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4136,7 +4136,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="2">
-        <v>4310</v>
+        <v>1064</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>114</v>
@@ -4176,7 +4176,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="2">
-        <v>5431</v>
+        <v>1503</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>114</v>
@@ -4256,7 +4256,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="2">
-        <v>1503</v>
+        <v>4310</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>114</v>
@@ -4296,7 +4296,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="2">
-        <v>2856</v>
+        <v>4587</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>114</v>
@@ -4325,7 +4325,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4336,7 +4336,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="2">
-        <v>4587</v>
+        <v>5431</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>114</v>
@@ -4365,7 +4365,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4376,7 +4376,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="2">
-        <v>1064</v>
+        <v>2856</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>114</v>
@@ -4405,7 +4405,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4560,7 +4560,7 @@
         <v>119</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>170</v>
@@ -4925,7 +4925,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4995,10 +4995,10 @@
         <v>147</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>20</v>
@@ -5033,16 +5033,16 @@
         <v>2023</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>20</v>
@@ -5077,10 +5077,10 @@
         <v>2023</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>169</v>
@@ -5121,10 +5121,10 @@
         <v>2023</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>167</v>
@@ -5165,10 +5165,10 @@
         <v>2023</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>167</v>
@@ -5277,7 +5277,7 @@
         <v>331</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -6016,7 +6016,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="2">
-        <v>930</v>
+        <v>4472</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>114</v>
@@ -6045,7 +6045,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6056,7 +6056,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="2">
-        <v>4472</v>
+        <v>930</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>114</v>
@@ -6085,7 +6085,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6236,7 +6236,7 @@
         <v>119</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>162</v>
@@ -6268,7 +6268,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="2">
-        <v>7640</v>
+        <v>609</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>114</v>
@@ -6312,7 +6312,7 @@
         <v>110</v>
       </c>
       <c r="C112" s="2">
-        <v>609</v>
+        <v>7640</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>114</v>
@@ -6433,7 +6433,7 @@
         <v>337</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6477,7 +6477,7 @@
         <v>337</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:14">
